--- a/DBSCucumberProject/src/excelExportAndFileIO/ExportExcel.xlsx
+++ b/DBSCucumberProject/src/excelExportAndFileIO/ExportExcel.xlsx
@@ -7,16 +7,109 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ExcelDemo" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="29">
+  <si>
+    <t>Amalgam Holdings Pte Ltd</t>
+  </si>
+  <si>
+    <t>Andhra Heritage Pte Ltd</t>
+  </si>
+  <si>
+    <t>Bliss Group</t>
+  </si>
+  <si>
+    <t>Chang Cheng Group</t>
+  </si>
+  <si>
+    <t>Elsie's Kitchen Catering Services Pte Ltd</t>
+  </si>
+  <si>
+    <t>Fei Siong Group</t>
+  </si>
+  <si>
+    <t>Four Seasons Catering</t>
+  </si>
+  <si>
+    <t>Gao Ji F&amp;B Pte Ltd</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Java Kitchen Pte Ltd</t>
+  </si>
+  <si>
+    <t>Joe &amp; Dough Pte Ltd</t>
+  </si>
+  <si>
+    <t>JR Foods Pte Ltd</t>
+  </si>
+  <si>
+    <t>Kim San Leng Group</t>
+  </si>
+  <si>
+    <t>Kimly Group</t>
+  </si>
+  <si>
+    <t>Koufu Group</t>
+  </si>
+  <si>
+    <t>K&amp;C Holdings Pte Ltd</t>
+  </si>
+  <si>
+    <t>My NoNNa’s</t>
+  </si>
+  <si>
+    <t>PopeJai Pte Ltd</t>
+  </si>
+  <si>
+    <t>Qi Ji Group</t>
+  </si>
+  <si>
+    <t>Spize Bedok Pte Ltd</t>
+  </si>
+  <si>
+    <t>Sterling Trends &amp; Concepts Pte Ltd</t>
+  </si>
+  <si>
+    <t>Straits Chinese Nonya Restaurant Pte Ltd</t>
+  </si>
+  <si>
+    <t>SWHF Pte Ltd (Simply Wrapps)</t>
+  </si>
+  <si>
+    <t>Tasty Loong Pte Ltd</t>
+  </si>
+  <si>
+    <t>Tenderfresh Fried &amp; BBQ Chicken Pte Ltd</t>
+  </si>
+  <si>
+    <t>Tenseven Pte Ltd</t>
+  </si>
+  <si>
+    <t>The Peranakan</t>
+  </si>
+  <si>
+    <t>WNK F&amp;B Management Pte Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -342,12 +435,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
